--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1035349.534901294</v>
+        <v>-1038246.963158931</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>10.78545761117237</v>
       </c>
       <c r="L2" t="n">
-        <v>4.959070404001507</v>
+        <v>12.38369583986321</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>18.21008304703129</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.21008304703129</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>16.03944114782516</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -756,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>18.21008304703225</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15.54112977924298</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.21008304703225</v>
       </c>
       <c r="S3" t="n">
-        <v>18.21008304703129</v>
+        <v>0.4983113685830217</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>18.21008304703129</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>18.21008304703225</v>
       </c>
     </row>
     <row r="4">
@@ -893,53 +893,53 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>23.13715520272814</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.70732065777799</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>45.63689302957772</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17.14684397594775</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.810057396252972</v>
+      </c>
+      <c r="Q5" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49.79500702712463</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>44.76721749344848</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,76 +972,76 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>46.18894706358476</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>31.01751192697151</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>43.85944218949135</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>16.44799022605971</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="W6" t="n">
-        <v>49.79500702712463</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1145,16 +1145,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.38870434448781</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H8" t="n">
-        <v>78.48408095183352</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S8" t="n">
-        <v>112.1126601249237</v>
+        <v>74.42592173560139</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1254,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>89.49227226221132</v>
       </c>
       <c r="T9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>98.74883103803275</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>75.36029013146805</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>4.798994995563874</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0.7368957119595052</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.64225561647735</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315.8383700411116</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.592917841534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>291.2403613834998</v>
+        <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389925</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740601</v>
+        <v>101.6950537740603</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4786139429425</v>
+        <v>202.4786139429426</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9688673339484</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.1497787899789</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1701,10 @@
         <v>134.8235414765287</v>
       </c>
       <c r="H15" t="n">
-        <v>87.89778431512079</v>
+        <v>87.89778431512082</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853811</v>
+        <v>12.76005920853824</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>124.8757279762148</v>
+        <v>124.8757279762149</v>
       </c>
       <c r="T15" t="n">
         <v>190.0074582735027</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>22.10658808144488</v>
       </c>
       <c r="G16" t="n">
         <v>165.8783163942143</v>
@@ -1783,7 +1783,7 @@
         <v>143.4436781526118</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434394</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.30038209396101</v>
       </c>
       <c r="S16" t="n">
         <v>187.1986443782762</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.9187567628735</v>
       </c>
       <c r="U16" t="n">
-        <v>120.0538910019846</v>
+        <v>286.2037931948048</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,7 +1844,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
         <v>323.072839268469</v>
@@ -1853,10 +1853,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262537</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
         <v>354.6277363038396</v>
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
         <v>117.0052706659984</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894954</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
         <v>378.5542040247498</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295168</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453002</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221567</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V25" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
@@ -2564,10 +2564,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H26" t="n">
         <v>255.2416659947559</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U26" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y26" t="n">
         <v>354.6277363038396</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D28" t="n">
         <v>117.0052706659984</v>
@@ -2722,16 +2722,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453038</v>
+        <v>54.52629139453006</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
@@ -2767,16 +2767,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y28" t="n">
         <v>186.9744509998808</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,7 +3241,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3433,7 +3433,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707186</v>
       </c>
       <c r="G37" t="n">
         <v>134.0758985510282</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684674</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894976</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247499</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295186</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.1420561179211</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651992</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262552</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038398</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C40" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.5262913945302</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221587</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U41" t="n">
         <v>219.3243840645688</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
         <v>135.6366187464139</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3955,10 +3955,10 @@
         <v>254.5831063612651</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
         <v>194.0994530368232</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4201,7 +4201,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.43894235509951</v>
+        <v>45.83296563493198</v>
       </c>
       <c r="C2" t="n">
-        <v>27.43894235509951</v>
+        <v>45.83296563493198</v>
       </c>
       <c r="D2" t="n">
-        <v>27.43894235509951</v>
+        <v>45.83296563493198</v>
       </c>
       <c r="E2" t="n">
-        <v>27.43894235509951</v>
+        <v>45.83296563493198</v>
       </c>
       <c r="F2" t="n">
-        <v>20.49344160589604</v>
+        <v>38.88746488572851</v>
       </c>
       <c r="G2" t="n">
-        <v>6.46596866800645</v>
+        <v>24.85999194783892</v>
       </c>
       <c r="H2" t="n">
-        <v>6.46596866800645</v>
+        <v>24.85999194783892</v>
       </c>
       <c r="I2" t="n">
-        <v>6.46596866800645</v>
+        <v>24.85999194783892</v>
       </c>
       <c r="J2" t="n">
-        <v>6.46596866800645</v>
+        <v>24.85999194783892</v>
       </c>
       <c r="K2" t="n">
-        <v>6.46596866800645</v>
+        <v>13.96559032039208</v>
       </c>
       <c r="L2" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="M2" t="n">
-        <v>19.48478886032349</v>
+        <v>19.4847888603245</v>
       </c>
       <c r="N2" t="n">
-        <v>37.51277107688447</v>
+        <v>37.51277107688642</v>
       </c>
       <c r="O2" t="n">
-        <v>45.8329656349291</v>
+        <v>45.83296563493198</v>
       </c>
       <c r="P2" t="n">
-        <v>45.8329656349291</v>
+        <v>45.83296563493198</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.8329656349291</v>
+        <v>45.83296563493198</v>
       </c>
       <c r="R2" t="n">
-        <v>45.8329656349291</v>
+        <v>45.83296563493198</v>
       </c>
       <c r="S2" t="n">
-        <v>45.8329656349291</v>
+        <v>45.83296563493198</v>
       </c>
       <c r="T2" t="n">
-        <v>45.8329656349291</v>
+        <v>45.83296563493198</v>
       </c>
       <c r="U2" t="n">
-        <v>27.43894235509951</v>
+        <v>45.83296563493198</v>
       </c>
       <c r="V2" t="n">
-        <v>27.43894235509951</v>
+        <v>45.83296563493198</v>
       </c>
       <c r="W2" t="n">
-        <v>27.43894235509951</v>
+        <v>45.83296563493198</v>
       </c>
       <c r="X2" t="n">
-        <v>27.43894235509951</v>
+        <v>45.83296563493198</v>
       </c>
       <c r="Y2" t="n">
-        <v>27.43894235509951</v>
+        <v>45.83296563493198</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.65826234863641</v>
+        <v>35.54894081171736</v>
       </c>
       <c r="C3" t="n">
-        <v>17.65826234863641</v>
+        <v>35.54894081171736</v>
       </c>
       <c r="D3" t="n">
-        <v>1.456806643762504</v>
+        <v>35.54894081171736</v>
       </c>
       <c r="E3" t="n">
-        <v>1.456806643762504</v>
+        <v>35.54894081171736</v>
       </c>
       <c r="F3" t="n">
-        <v>1.456806643762504</v>
+        <v>35.54894081171736</v>
       </c>
       <c r="G3" t="n">
-        <v>1.456806643762504</v>
+        <v>35.54894081171736</v>
       </c>
       <c r="H3" t="n">
-        <v>1.456806643762504</v>
+        <v>35.54894081171736</v>
       </c>
       <c r="I3" t="n">
-        <v>1.456806643762504</v>
+        <v>17.1549175318868</v>
       </c>
       <c r="J3" t="n">
-        <v>1.456806643762504</v>
+        <v>17.1549175318868</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="L3" t="n">
-        <v>19.48478886032349</v>
+        <v>19.4847888603245</v>
       </c>
       <c r="M3" t="n">
-        <v>37.51277107688447</v>
+        <v>26.23887646228903</v>
       </c>
       <c r="N3" t="n">
-        <v>44.26685867884862</v>
+        <v>44.26685867885096</v>
       </c>
       <c r="O3" t="n">
-        <v>62.29484089540961</v>
+        <v>62.29484089541288</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218812517</v>
+        <v>72.84033218812898</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.84033218812517</v>
+        <v>72.84033218812898</v>
       </c>
       <c r="R3" t="n">
-        <v>72.84033218812517</v>
+        <v>54.44630890829843</v>
       </c>
       <c r="S3" t="n">
-        <v>54.44630890829558</v>
+        <v>53.94296409154791</v>
       </c>
       <c r="T3" t="n">
-        <v>54.44630890829558</v>
+        <v>53.94296409154791</v>
       </c>
       <c r="U3" t="n">
-        <v>36.052285628466</v>
+        <v>53.94296409154791</v>
       </c>
       <c r="V3" t="n">
-        <v>36.052285628466</v>
+        <v>53.94296409154791</v>
       </c>
       <c r="W3" t="n">
-        <v>36.052285628466</v>
+        <v>53.94296409154791</v>
       </c>
       <c r="X3" t="n">
-        <v>36.052285628466</v>
+        <v>53.94296409154791</v>
       </c>
       <c r="Y3" t="n">
-        <v>36.052285628466</v>
+        <v>35.54894081171736</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="C4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="D4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="E4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="F4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="G4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="H4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="K4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="L4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="M4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="N4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="O4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="P4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="R4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="S4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="T4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="U4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="V4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="W4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="X4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.456806643762504</v>
+        <v>1.45680664376258</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103.6626296028691</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="C5" t="n">
-        <v>103.6626296028691</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="D5" t="n">
-        <v>103.6626296028691</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="E5" t="n">
-        <v>103.6626296028691</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="F5" t="n">
-        <v>96.71712885366563</v>
+        <v>81.2472951715674</v>
       </c>
       <c r="G5" t="n">
-        <v>46.41914195758014</v>
+        <v>67.40151672936742</v>
       </c>
       <c r="H5" t="n">
-        <v>46.41914195758014</v>
+        <v>67.40151672936742</v>
       </c>
       <c r="I5" t="n">
-        <v>46.41914195758014</v>
+        <v>67.40151672936742</v>
       </c>
       <c r="J5" t="n">
-        <v>46.41914195758014</v>
+        <v>21.30364498231921</v>
       </c>
       <c r="K5" t="n">
-        <v>46.41914195758014</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="L5" t="n">
-        <v>62.2614493974929</v>
+        <v>19.82590800208273</v>
       </c>
       <c r="M5" t="n">
-        <v>111.5585063543463</v>
+        <v>69.12296495893611</v>
       </c>
       <c r="N5" t="n">
-        <v>160.8555633111997</v>
+        <v>118.4200219157895</v>
       </c>
       <c r="O5" t="n">
-        <v>199.1800281084985</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="P5" t="n">
-        <v>199.1800281084985</v>
+        <v>154.9161459087924</v>
       </c>
       <c r="Q5" t="n">
-        <v>199.1800281084985</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="R5" t="n">
-        <v>199.1800281084985</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="S5" t="n">
-        <v>199.1800281084985</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="T5" t="n">
-        <v>199.1800281084985</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="U5" t="n">
-        <v>153.9606164989546</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="V5" t="n">
-        <v>153.9606164989546</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="W5" t="n">
-        <v>153.9606164989546</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="X5" t="n">
-        <v>153.9606164989546</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="Y5" t="n">
-        <v>153.9606164989546</v>
+        <v>104.6181590127069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.28606742024204</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="C6" t="n">
-        <v>48.28606742024204</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="D6" t="n">
-        <v>48.28606742024204</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="E6" t="n">
-        <v>3.98360056216997</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="F6" t="n">
-        <v>3.98360056216997</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="G6" t="n">
-        <v>3.98360056216997</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="H6" t="n">
-        <v>3.98360056216997</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="I6" t="n">
-        <v>3.98360056216997</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="J6" t="n">
         <v>3.98360056216997</v>
@@ -4650,10 +4650,10 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L6" t="n">
-        <v>22.54896088111074</v>
+        <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N6" t="n">
         <v>121.1430747948175</v>
@@ -4665,31 +4665,31 @@
         <v>199.1800281084985</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="R6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="S6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1800281084985</v>
+        <v>117.551221084159</v>
       </c>
       <c r="U6" t="n">
-        <v>199.1800281084985</v>
+        <v>100.9370895426845</v>
       </c>
       <c r="V6" t="n">
-        <v>148.882041212413</v>
+        <v>100.9370895426845</v>
       </c>
       <c r="W6" t="n">
-        <v>98.58405431632752</v>
+        <v>100.9370895426845</v>
       </c>
       <c r="X6" t="n">
-        <v>98.58405431632752</v>
+        <v>100.9370895426845</v>
       </c>
       <c r="Y6" t="n">
-        <v>98.58405431632752</v>
+        <v>50.63910264659903</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>221.9604180251014</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="C8" t="n">
-        <v>221.9604180251014</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="D8" t="n">
-        <v>221.9604180251014</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="E8" t="n">
-        <v>221.9604180251014</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="F8" t="n">
-        <v>215.0149172758979</v>
+        <v>254.2417925668747</v>
       </c>
       <c r="G8" t="n">
-        <v>201.490973493587</v>
+        <v>140.996681329578</v>
       </c>
       <c r="H8" t="n">
-        <v>122.2141240472905</v>
+        <v>140.996681329578</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993892</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="J8" t="n">
         <v>8.969012809993892</v>
@@ -4823,31 +4823,31 @@
         <v>448.4506404996946</v>
       </c>
       <c r="Q8" t="n">
-        <v>448.4506404996946</v>
+        <v>432.6813068454352</v>
       </c>
       <c r="R8" t="n">
-        <v>448.4506404996946</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="S8" t="n">
-        <v>335.205529262398</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="T8" t="n">
-        <v>335.205529262398</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="U8" t="n">
-        <v>335.205529262398</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="V8" t="n">
-        <v>221.9604180251014</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="W8" t="n">
-        <v>221.9604180251014</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="X8" t="n">
-        <v>221.9604180251014</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="Y8" t="n">
-        <v>221.9604180251014</v>
+        <v>261.1872933160781</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>235.4592352845871</v>
+      </c>
+      <c r="C9" t="n">
+        <v>235.4592352845871</v>
+      </c>
+      <c r="D9" t="n">
         <v>122.2141240472905</v>
-      </c>
-      <c r="C9" t="n">
-        <v>122.2141240472905</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8.969012809993892</v>
       </c>
       <c r="E9" t="n">
         <v>8.969012809993892</v>
@@ -4890,7 +4890,7 @@
         <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>230.1803012028977</v>
+        <v>176.439439640395</v>
       </c>
       <c r="N9" t="n">
         <v>287.4309731640694</v>
@@ -4902,31 +4902,31 @@
         <v>448.4506404996946</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.4506404996946</v>
+        <v>439.100581130178</v>
       </c>
       <c r="R9" t="n">
-        <v>448.4506404996946</v>
+        <v>439.100581130178</v>
       </c>
       <c r="S9" t="n">
-        <v>448.4506404996946</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="T9" t="n">
-        <v>335.205529262398</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="U9" t="n">
-        <v>335.205529262398</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="V9" t="n">
-        <v>335.205529262398</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="W9" t="n">
-        <v>335.205529262398</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="X9" t="n">
-        <v>235.4592352845871</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="Y9" t="n">
-        <v>235.4592352845871</v>
+        <v>348.7043465218837</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="C10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="D10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="E10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="F10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="G10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="I10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="K10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="L10" t="n">
         <v>8.969012809993892</v>
@@ -4990,22 +4990,22 @@
         <v>12.63101027343186</v>
       </c>
       <c r="T10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="V10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="W10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="X10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1523.222118183414</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C11" t="n">
-        <v>1523.222118183414</v>
+        <v>863.2862738200354</v>
       </c>
       <c r="D11" t="n">
-        <v>1164.956419576664</v>
+        <v>863.2862738200354</v>
       </c>
       <c r="E11" t="n">
-        <v>779.1681669784195</v>
+        <v>477.4980212217911</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784195</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939507</v>
@@ -5060,31 +5060,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3004.489935827998</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2673.427048484427</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2673.427048484427</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>2299.961290223348</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1909.821958247536</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>943.7005868594142</v>
+        <v>530.9956795433832</v>
       </c>
       <c r="C13" t="n">
-        <v>774.7644039315073</v>
+        <v>362.0594966154763</v>
       </c>
       <c r="D13" t="n">
-        <v>624.6477645191716</v>
+        <v>362.0594966154763</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191716</v>
+        <v>214.1464030330832</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212612</v>
+        <v>67.25645553517282</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>67.25645553517282</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>67.25645553517282</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791187</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764913</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760402</v>
+        <v>976.3387758760401</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5218,31 @@
         <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1925.635704031445</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1703.869088600971</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U13" t="n">
-        <v>1414.766221726615</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.766221726615</v>
+        <v>1450.843444452131</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.349051689654</v>
+        <v>1161.42627441517</v>
       </c>
       <c r="X13" t="n">
-        <v>1125.349051689654</v>
+        <v>933.436723517153</v>
       </c>
       <c r="Y13" t="n">
-        <v>1125.349051689654</v>
+        <v>712.6441443736229</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.647924733508</v>
+        <v>1523.752595221952</v>
       </c>
       <c r="C14" t="n">
-        <v>1967.685407793097</v>
+        <v>1523.752595221952</v>
       </c>
       <c r="D14" t="n">
-        <v>1609.419709186346</v>
+        <v>1165.486896615202</v>
       </c>
       <c r="E14" t="n">
-        <v>1223.631456588102</v>
+        <v>779.698644016957</v>
       </c>
       <c r="F14" t="n">
-        <v>812.6455517984944</v>
+        <v>368.7127392273495</v>
       </c>
       <c r="G14" t="n">
-        <v>397.9052307464398</v>
+        <v>368.7127392273495</v>
       </c>
       <c r="H14" t="n">
-        <v>103.7230475307833</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169314</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="J14" t="n">
-        <v>291.0377674773526</v>
+        <v>291.0377674773517</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720056003</v>
+        <v>666.2644720055991</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.668140645701</v>
+        <v>1168.6681406457</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.35846227529</v>
+        <v>1759.358462275286</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.220579235396</v>
+        <v>2364.220579235391</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.03946316308</v>
+        <v>2922.039463163073</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.62397414041</v>
+        <v>3363.623974140402</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.06280504952</v>
+        <v>3647.062805049512</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584657</v>
+        <v>3726.527800584648</v>
       </c>
       <c r="S14" t="n">
-        <v>3623.805524045202</v>
+        <v>3623.805524045193</v>
       </c>
       <c r="T14" t="n">
-        <v>3419.281671577583</v>
+        <v>3419.281671577574</v>
       </c>
       <c r="U14" t="n">
-        <v>3419.281671577583</v>
+        <v>3165.777765179646</v>
       </c>
       <c r="V14" t="n">
-        <v>3419.281671577583</v>
+        <v>2834.714877836076</v>
       </c>
       <c r="W14" t="n">
-        <v>3419.281671577583</v>
+        <v>2673.957525522966</v>
       </c>
       <c r="X14" t="n">
-        <v>3045.815913316504</v>
+        <v>2300.491767261886</v>
       </c>
       <c r="Y14" t="n">
-        <v>2655.676581340692</v>
+        <v>1910.352435286074</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>458.9250988334825</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3905408603675</v>
+        <v>312.3905408603674</v>
       </c>
       <c r="G15" t="n">
         <v>176.2051454295304</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41950470718618</v>
+        <v>87.41950470718612</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169314</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="J15" t="n">
-        <v>74.53055601169314</v>
+        <v>184.6629209807616</v>
       </c>
       <c r="K15" t="n">
-        <v>340.9191340937605</v>
+        <v>451.0514990628283</v>
       </c>
       <c r="L15" t="n">
-        <v>745.4339928726415</v>
+        <v>855.5663578417085</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.840621506598</v>
+        <v>1346.972986475664</v>
       </c>
       <c r="N15" t="n">
-        <v>1755.661966290183</v>
+        <v>1865.794331259248</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.062341591418</v>
+        <v>2318.194706560482</v>
       </c>
       <c r="P15" t="n">
-        <v>2551.820460848999</v>
+        <v>2560.886573990975</v>
       </c>
       <c r="Q15" t="n">
-        <v>2551.820460848999</v>
+        <v>2560.886573990975</v>
       </c>
       <c r="R15" t="n">
         <v>2560.886573990975</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>776.8289937615042</v>
+        <v>559.4235415131914</v>
       </c>
       <c r="C16" t="n">
-        <v>776.828993761505</v>
+        <v>559.4235415131914</v>
       </c>
       <c r="D16" t="n">
-        <v>626.7123543491692</v>
+        <v>409.3069021008556</v>
       </c>
       <c r="E16" t="n">
-        <v>626.7123543491692</v>
+        <v>409.3069021008556</v>
       </c>
       <c r="F16" t="n">
-        <v>479.8224068512589</v>
+        <v>386.9770151499012</v>
       </c>
       <c r="G16" t="n">
-        <v>312.2685519076081</v>
+        <v>219.4231602062504</v>
       </c>
       <c r="H16" t="n">
-        <v>167.3759477130507</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169314</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525475</v>
+        <v>129.976586552547</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923175</v>
+        <v>350.928283792317</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553113</v>
+        <v>689.1968198553102</v>
       </c>
       <c r="M16" t="n">
-        <v>1056.242685479734</v>
+        <v>1056.242685479732</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229309</v>
+        <v>1419.995637229307</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.96406777686</v>
+        <v>1739.964067776858</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135875</v>
+        <v>1990.231654135873</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389597</v>
+        <v>2080.068878389594</v>
       </c>
       <c r="R16" t="n">
-        <v>2080.068878389597</v>
+        <v>1996.937179304785</v>
       </c>
       <c r="S16" t="n">
-        <v>1890.97933861356</v>
+        <v>1807.847639528748</v>
       </c>
       <c r="T16" t="n">
-        <v>1890.97933861356</v>
+        <v>1586.717582192512</v>
       </c>
       <c r="U16" t="n">
-        <v>1769.712782045899</v>
+        <v>1297.622841591699</v>
       </c>
       <c r="V16" t="n">
-        <v>1515.028293840012</v>
+        <v>1297.622841591699</v>
       </c>
       <c r="W16" t="n">
-        <v>1225.611123803052</v>
+        <v>1008.205671554739</v>
       </c>
       <c r="X16" t="n">
-        <v>997.6215729050343</v>
+        <v>780.2161206567215</v>
       </c>
       <c r="Y16" t="n">
-        <v>776.8289937615042</v>
+        <v>559.4235415131914</v>
       </c>
     </row>
     <row r="17">
@@ -5495,64 +5495,64 @@
         <v>1784.429621497863</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796664</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924544</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283562</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382057</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X17" t="n">
         <v>2834.342818501802</v>
@@ -5586,28 +5586,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>535.3638672866915</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1662.137679823383</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
         <v>2555.644190323788</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C19" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039804</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H19" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042784</v>
@@ -5692,16 +5692,16 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
         <v>1887.747186237502</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497861</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943804</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
         <v>725.1782574796674</v>
@@ -5744,16 +5744,16 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5762,40 +5762,40 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382057</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>388.0214583249805</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L21" t="n">
-        <v>388.0214583249805</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>936.9399229352696</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1514.795270861672</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>2021.200225809922</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5929,10 +5929,10 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S22" t="n">
         <v>2333.272818966196</v>
@@ -5941,7 +5941,7 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
         <v>1664.992195357083</v>
@@ -5950,7 +5950,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254981</v>
@@ -5972,25 +5972,25 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
@@ -5999,25 +5999,25 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
         <v>3795.851627400161</v>
@@ -6026,7 +6026,7 @@
         <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
         <v>2834.342818501802</v>
@@ -6060,10 +6060,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
         <v>216.5575109835859</v>
@@ -6078,16 +6078,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O24" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477712</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315382</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443581</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902756</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.55207904089</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.71920135497</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313933</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028686</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597203</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796669</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
@@ -6227,7 +6227,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6239,10 +6239,10 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
         <v>4142.907144767228</v>
@@ -6254,22 +6254,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>388.0214583249806</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>936.9399229352697</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1514.795270861672</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>2021.200225809922</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2408.301781362078</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D28" t="n">
         <v>617.6685920609043</v>
@@ -6370,13 +6370,13 @@
         <v>501.6849958039799</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G28" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897934</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511622</v>
@@ -6385,49 +6385,49 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X28" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
         <v>1784.429621497863</v>
@@ -6449,7 +6449,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
@@ -6458,28 +6458,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511683</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
         <v>4142.907144767228</v>
@@ -6491,22 +6491,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6549,19 +6549,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1551.25253785418</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>2057.65749280243</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039802</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897931</v>
@@ -6619,19 +6619,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443606</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
         <v>2087.878830313935</v>
@@ -6640,13 +6640,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127668</v>
@@ -6686,7 +6686,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796671</v>
+        <v>725.178257479667</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6701,22 +6701,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.907144767228</v>
@@ -6728,13 +6728,13 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437414</v>
@@ -6777,22 +6777,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>535.3638672866908</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
         <v>2555.644190323788</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749447</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897931</v>
@@ -6856,13 +6856,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6871,10 +6871,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
         <v>2529.521427597205</v>
@@ -6886,10 +6886,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357083</v>
@@ -6898,7 +6898,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076836</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M35" t="n">
         <v>2001.213713746738</v>
@@ -6950,37 +6950,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502113</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477714</v>
+        <v>735.855734147773</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609059</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039815</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G37" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
         <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7108,16 +7108,16 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
         <v>2333.272818966195</v>
@@ -7126,7 +7126,7 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357083</v>
@@ -7135,10 +7135,10 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G38" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511622</v>
@@ -7175,22 +7175,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767228</v>
@@ -7202,22 +7202,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>879.6062951712937</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1428.524759781583</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K40" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
         <v>857.3827676902783</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354975</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313938</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162836</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I41" t="n">
         <v>84.98040897511622</v>
@@ -7412,22 +7412,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
         <v>4142.907144767228</v>
@@ -7494,22 +7494,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>519.5985603334502</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>1068.517024943739</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.372372870142</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749446</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897931</v>
@@ -7576,10 +7576,10 @@
         <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O43" t="n">
         <v>2087.878830313936</v>
@@ -7597,10 +7597,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357083</v>
@@ -7609,7 +7609,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C46" t="n">
         <v>735.8557341477717</v>
@@ -7801,40 +7801,40 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
         <v>1887.747186237502</v>
@@ -9796,7 +9796,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446491</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
         <v>162.4747015415544</v>
@@ -9814,7 +9814,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775176</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10042,7 +10042,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>171.8177168444598</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10525,7 +10525,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775177</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10987,7 +10987,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094482</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
         <v>171.8177168444618</v>
@@ -11236,7 +11236,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775083</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>307.3735515320125</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292598</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>246.1961769633381</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>95.6155246978786</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>188.1267697149646</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66.89547162236896</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.592917841534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>28.90056660389953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9688673339484</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>190.0911899274342</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>123.3144599414864</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>91.91693778434404</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396085</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.9187567628735</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>166.1499021928203</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.025899448199198e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1074853.822972984</v>
+        <v>1074853.822972983</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>225786.4867126778</v>
+      </c>
+      <c r="C2" t="n">
         <v>225786.4867126779</v>
-      </c>
-      <c r="C2" t="n">
-        <v>225786.4867126778</v>
       </c>
       <c r="D2" t="n">
         <v>225786.4867126778</v>
@@ -26323,7 +26323,7 @@
         <v>187548.4044340064</v>
       </c>
       <c r="F2" t="n">
-        <v>197667.2346769417</v>
+        <v>197667.2346769416</v>
       </c>
       <c r="G2" t="n">
         <v>225786.486712678</v>
@@ -26332,28 +26332,28 @@
         <v>225786.486712678</v>
       </c>
       <c r="I2" t="n">
-        <v>225786.4867126782</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="J2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="K2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="L2" t="n">
+        <v>225786.4867126782</v>
+      </c>
+      <c r="M2" t="n">
+        <v>225786.4867126779</v>
+      </c>
+      <c r="N2" t="n">
+        <v>225786.4867126778</v>
+      </c>
+      <c r="O2" t="n">
+        <v>225786.4867126778</v>
+      </c>
+      <c r="P2" t="n">
         <v>225786.486712678</v>
-      </c>
-      <c r="M2" t="n">
-        <v>225786.486712678</v>
-      </c>
-      <c r="N2" t="n">
-        <v>225786.4867126782</v>
-      </c>
-      <c r="O2" t="n">
-        <v>225786.4867126782</v>
-      </c>
-      <c r="P2" t="n">
-        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.5970321815</v>
+        <v>345405.5970321831</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.63134876598</v>
+        <v>50948.63134876443</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429534</v>
+        <v>707780.8576429535</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.8848465451</v>
+        <v>93369.88484654293</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975317</v>
+        <v>143964.0818975339</v>
       </c>
       <c r="H3" t="n">
-        <v>1.428377345291665e-10</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>7.673861546209082e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.558968757492</v>
+        <v>4764.558968757756</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.948714908661</v>
+        <v>8128.948714908358</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194624</v>
+        <v>41060.19902194619</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383014</v>
+        <v>179249.6449383015</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613233</v>
+        <v>24549.15438613166</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875902</v>
+        <v>31434.59456875973</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348982.9265318206</v>
+        <v>348982.9265318202</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
@@ -26430,22 +26430,22 @@
         <v>15311.76636570053</v>
       </c>
       <c r="G4" t="n">
-        <v>46449.25880112084</v>
+        <v>46449.25880112078</v>
       </c>
       <c r="H4" t="n">
         <v>46449.25880112081</v>
       </c>
       <c r="I4" t="n">
-        <v>46449.25880112086</v>
+        <v>46449.25880112081</v>
       </c>
       <c r="J4" t="n">
+        <v>46449.25880112084</v>
+      </c>
+      <c r="K4" t="n">
+        <v>46449.25880112079</v>
+      </c>
+      <c r="L4" t="n">
         <v>46449.2588011208</v>
-      </c>
-      <c r="K4" t="n">
-        <v>46449.25880112081</v>
-      </c>
-      <c r="L4" t="n">
-        <v>46449.25880112079</v>
       </c>
       <c r="M4" t="n">
         <v>46449.25880112082</v>
@@ -26454,10 +26454,10 @@
         <v>46449.25880112083</v>
       </c>
       <c r="O4" t="n">
-        <v>46449.25880112081</v>
+        <v>46449.25880112083</v>
       </c>
       <c r="P4" t="n">
-        <v>46449.25880112082</v>
+        <v>46449.25880112078</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.88882425673</v>
+        <v>42410.88882425681</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26476,22 +26476,22 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390717</v>
+        <v>82183.39720390699</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="K5" t="n">
         <v>95106.43410215527</v>
@@ -26500,10 +26500,10 @@
         <v>95106.43410215527</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215528</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-511012.9256755809</v>
+        <v>-511012.9256755823</v>
       </c>
       <c r="C6" t="n">
-        <v>-203725.370074001</v>
+        <v>-203725.3700739993</v>
       </c>
       <c r="D6" t="n">
         <v>-217549.8931045171</v>
       </c>
       <c r="E6" t="n">
-        <v>-609798.6925575425</v>
+        <v>-610146.3114873488</v>
       </c>
       <c r="F6" t="n">
-        <v>6802.186260788934</v>
+        <v>6546.556696829864</v>
       </c>
       <c r="G6" t="n">
-        <v>-59733.2880881298</v>
+        <v>-59733.28808813197</v>
       </c>
       <c r="H6" t="n">
         <v>84230.79380940179</v>
       </c>
       <c r="I6" t="n">
-        <v>84230.79380940204</v>
+        <v>84230.79380940221</v>
       </c>
       <c r="J6" t="n">
-        <v>79466.23484064444</v>
+        <v>79466.23484064422</v>
       </c>
       <c r="K6" t="n">
-        <v>76101.84509449333</v>
+        <v>76101.84509449353</v>
       </c>
       <c r="L6" t="n">
-        <v>43170.59478745572</v>
+        <v>43170.59478745589</v>
       </c>
       <c r="M6" t="n">
-        <v>-95018.85112889943</v>
+        <v>-95018.85112889967</v>
       </c>
       <c r="N6" t="n">
-        <v>59681.63942326981</v>
+        <v>59681.63942327005</v>
       </c>
       <c r="O6" t="n">
-        <v>52796.19924064311</v>
+        <v>52796.199240642</v>
       </c>
       <c r="P6" t="n">
-        <v>84230.79380940204</v>
+        <v>84230.79380940209</v>
       </c>
     </row>
   </sheetData>
@@ -26698,16 +26698,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K2" t="n">
         <v>31.61020235221394</v>
@@ -26716,16 +26716,16 @@
         <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228087</v>
+        <v>352.11540252281</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1171.567643808275</v>
+        <v>1171.567643808273</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703129</v>
+        <v>18.21008304703225</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26796,19 +26796,19 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461642</v>
+        <v>931.6319501461619</v>
       </c>
       <c r="G4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="H4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="I4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="J4" t="n">
         <v>1062.255112188953</v>
@@ -26920,22 +26920,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.592326932761353e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228087</v>
+        <v>352.11540252281</v>
       </c>
       <c r="C3" t="n">
-        <v>44.74454074475938</v>
+        <v>44.74454074475801</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
@@ -26969,10 +26969,10 @@
         <v>613.6609493947958</v>
       </c>
       <c r="F3" t="n">
-        <v>81.79094321497701</v>
+        <v>81.79094321497519</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118475</v>
+        <v>106.5922268118495</v>
       </c>
       <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703129</v>
+        <v>18.21008304703225</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009333</v>
+        <v>31.58492398009238</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773688</v>
+        <v>719.288795277369</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438718</v>
+        <v>100.2304947438693</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427882</v>
+        <v>130.6231620427909</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703175</v>
+        <v>18.21008304703225</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009333</v>
+        <v>31.58492398009238</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773685</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>100.230494743872</v>
+        <v>100.2304947438693</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427882</v>
+        <v>130.6231620427909</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.592326932761353e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703129</v>
+        <v>18.21008304703225</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009333</v>
+        <v>31.58492398009238</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773688</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438718</v>
+        <v>100.2304947438693</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427882</v>
+        <v>130.6231620427909</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27397,16 +27397,16 @@
         <v>324.9779101918004</v>
       </c>
       <c r="I2" t="n">
-        <v>155.9033104517704</v>
+        <v>155.9033104517702</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107729</v>
+        <v>60.90377530107683</v>
       </c>
       <c r="K2" t="n">
-        <v>40.02794296996257</v>
+        <v>29.24248535878949</v>
       </c>
       <c r="L2" t="n">
-        <v>7.424625435862581</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27418,22 +27418,22 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855381</v>
+        <v>27.67667403855302</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.44336957621852</v>
+        <v>69.44336957621792</v>
       </c>
       <c r="R2" t="n">
-        <v>126.6666668443899</v>
+        <v>126.6666668443895</v>
       </c>
       <c r="S2" t="n">
-        <v>176.7634676365428</v>
+        <v>176.7634676365427</v>
       </c>
       <c r="T2" t="n">
-        <v>216.8993262493833</v>
+        <v>216.8993262493832</v>
       </c>
       <c r="U2" t="n">
-        <v>233.0223267162752</v>
+        <v>251.2324097633065</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.323100602836</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>131.4056244168136</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,13 +27476,13 @@
         <v>104.9207450255981</v>
       </c>
       <c r="I3" t="n">
-        <v>73.445909152792</v>
+        <v>55.23582610575966</v>
       </c>
       <c r="J3" t="n">
-        <v>55.28179755587591</v>
+        <v>55.28179755587564</v>
       </c>
       <c r="K3" t="n">
-        <v>15.54112977924345</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27500,19 +27500,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.30284318957034</v>
+        <v>43.30284318956997</v>
       </c>
       <c r="R3" t="n">
-        <v>98.65548851006884</v>
+        <v>80.44540546303642</v>
       </c>
       <c r="S3" t="n">
-        <v>139.4050811729943</v>
+        <v>157.1168528514426</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1119545918173</v>
+        <v>197.1119545918172</v>
       </c>
       <c r="U3" t="n">
-        <v>207.6814713826431</v>
+        <v>225.8915544296744</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>187.4726127302721</v>
       </c>
     </row>
     <row r="4">
@@ -27555,34 +27555,34 @@
         <v>156.5817812997788</v>
       </c>
       <c r="I4" t="n">
-        <v>136.3554298199558</v>
+        <v>136.3554298199557</v>
       </c>
       <c r="J4" t="n">
-        <v>82.10359380956197</v>
+        <v>82.1035938095618</v>
       </c>
       <c r="K4" t="n">
-        <v>55.24219515018304</v>
+        <v>55.24219515018275</v>
       </c>
       <c r="L4" t="n">
-        <v>40.48311410323807</v>
+        <v>40.4831141032377</v>
       </c>
       <c r="M4" t="n">
-        <v>39.39257270660852</v>
+        <v>39.39257270660814</v>
       </c>
       <c r="N4" t="n">
-        <v>30.51901051988169</v>
+        <v>30.51901051988131</v>
       </c>
       <c r="O4" t="n">
-        <v>48.70751749406196</v>
+        <v>48.70751749406161</v>
       </c>
       <c r="P4" t="n">
-        <v>60.93221199728788</v>
+        <v>60.93221199728758</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.33557584850173</v>
+        <v>98.33557584850152</v>
       </c>
       <c r="R4" t="n">
-        <v>148.7431818545824</v>
+        <v>148.7431818545823</v>
       </c>
       <c r="S4" t="n">
         <v>212.9509385839194</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>332.938834636356</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>383.7388905389833</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>363.9123136306533</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27637,10 +27637,10 @@
         <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
-        <v>45.63689302957772</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>17.14684397594775</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -27655,10 +27655,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.810057396252972</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>50.01861771953256</v>
+        <v>0.2236106924079309</v>
       </c>
       <c r="R5" t="n">
         <v>115.3674336481769</v>
@@ -27670,7 +27670,7 @@
         <v>216.1119122710508</v>
       </c>
       <c r="U5" t="n">
-        <v>206.4508020657995</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116.7381766227427</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>113.7856382659096</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27716,7 +27716,7 @@
         <v>70.13228042782632</v>
       </c>
       <c r="J6" t="n">
-        <v>46.18894706358476</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27737,7 +27737,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.01751192697151</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>92.6799817290989</v>
@@ -27746,22 +27746,22 @@
         <v>155.8274931817798</v>
       </c>
       <c r="T6" t="n">
-        <v>196.7240278659264</v>
+        <v>146.9290208388017</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8852226550407</v>
+        <v>209.437232428981</v>
       </c>
       <c r="V6" t="n">
-        <v>183.0055801223006</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>201.899976133795</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>155.8876887501797</v>
       </c>
     </row>
     <row r="7">
@@ -27865,16 +27865,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
-        <v>241.3886289550426</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
         <v>24.57246563410433</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946464</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>95.3531516584621</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.29137858519758</v>
+        <v>90.97811697451984</v>
       </c>
       <c r="T8" t="n">
         <v>214.717169359623</v>
@@ -27910,7 +27910,7 @@
         <v>251.1925302541847</v>
       </c>
       <c r="V8" t="n">
-        <v>215.6395983452113</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27938,7 +27938,7 @@
         <v>35.3324054397151</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>45.53242033047729</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27974,16 +27974,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
-        <v>152.6609993460486</v>
+        <v>63.1687270838373</v>
       </c>
       <c r="T9" t="n">
-        <v>83.92423484016754</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
         <v>225.8740072105222</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>107.0241541654447</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28038,7 +28038,7 @@
         <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>7.238823902544752</v>
+        <v>3.613446413741165</v>
       </c>
       <c r="M10" t="n">
         <v>4.341129883412066</v>
@@ -28062,7 +28062,7 @@
         <v>209.0540751673406</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6517791023747</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U10" t="n">
         <v>286.2721982989959</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221401</v>
       </c>
     </row>
     <row r="29">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221559</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221386</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.415539306624355</v>
+        <v>1.415539306624361</v>
       </c>
       <c r="H2" t="n">
-        <v>14.49689192396668</v>
+        <v>14.49689192396674</v>
       </c>
       <c r="I2" t="n">
-        <v>54.57257911863552</v>
+        <v>54.57257911863572</v>
       </c>
       <c r="J2" t="n">
-        <v>120.142129225609</v>
+        <v>120.1421292256095</v>
       </c>
       <c r="K2" t="n">
-        <v>180.061908075018</v>
+        <v>180.0619080750187</v>
       </c>
       <c r="L2" t="n">
-        <v>223.3827191301231</v>
+        <v>223.382719130124</v>
       </c>
       <c r="M2" t="n">
-        <v>248.556316274304</v>
+        <v>248.556316274305</v>
       </c>
       <c r="N2" t="n">
-        <v>247.6231466436222</v>
+        <v>247.6231466436232</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490045</v>
+        <v>238.5024483490055</v>
       </c>
       <c r="P2" t="n">
-        <v>203.5563217167157</v>
+        <v>203.5563217167165</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.862320298231</v>
+        <v>152.8623202982316</v>
       </c>
       <c r="R2" t="n">
-        <v>88.91887096974224</v>
+        <v>88.91887096974258</v>
       </c>
       <c r="S2" t="n">
-        <v>32.25660194970253</v>
+        <v>32.25660194970266</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196523314748119</v>
+        <v>6.196523314748143</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1132431445299484</v>
+        <v>0.1132431445299489</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7573802997660413</v>
+        <v>0.7573802997660443</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898348</v>
+        <v>7.314699210898376</v>
       </c>
       <c r="I3" t="n">
-        <v>26.076470847208</v>
+        <v>26.07647084720811</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079078</v>
+        <v>71.55582911079105</v>
       </c>
       <c r="K3" t="n">
-        <v>122.3003091951155</v>
+        <v>122.300309195116</v>
       </c>
       <c r="L3" t="n">
-        <v>156.7644628269055</v>
+        <v>156.7644628269064</v>
       </c>
       <c r="M3" t="n">
-        <v>160.3441169690496</v>
+        <v>148.9563446310734</v>
       </c>
       <c r="N3" t="n">
-        <v>138.164022792388</v>
+        <v>149.5517951303655</v>
       </c>
       <c r="O3" t="n">
-        <v>160.8063274914757</v>
+        <v>160.8063274914767</v>
       </c>
       <c r="P3" t="n">
-        <v>144.6264188211136</v>
+        <v>144.6264188211142</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645118</v>
+        <v>96.67893089645155</v>
       </c>
       <c r="R3" t="n">
-        <v>47.02401545389511</v>
+        <v>47.02401545389529</v>
       </c>
       <c r="S3" t="n">
-        <v>14.0680068838122</v>
+        <v>14.06800688381226</v>
       </c>
       <c r="T3" t="n">
-        <v>3.052774103004349</v>
+        <v>3.052774103004361</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04982765130039747</v>
+        <v>0.04982765130039767</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706385</v>
+        <v>0.634962201270641</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660772</v>
+        <v>5.645391207660793</v>
       </c>
       <c r="I4" t="n">
-        <v>19.09504510730248</v>
+        <v>19.09504510730255</v>
       </c>
       <c r="J4" t="n">
-        <v>44.89182762983414</v>
+        <v>44.89182762983432</v>
       </c>
       <c r="K4" t="n">
-        <v>73.77106302035234</v>
+        <v>73.77106302035263</v>
       </c>
       <c r="L4" t="n">
-        <v>94.40156217800022</v>
+        <v>94.40156217800059</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099654</v>
+        <v>99.53321124099692</v>
       </c>
       <c r="N4" t="n">
-        <v>97.1665339453515</v>
+        <v>97.16653394535189</v>
       </c>
       <c r="O4" t="n">
-        <v>89.74902095778083</v>
+        <v>89.74902095778118</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205185973</v>
+        <v>76.79579205186003</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.16942578094411</v>
+        <v>53.16942578094432</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258707</v>
+        <v>28.55020952258718</v>
       </c>
       <c r="S4" t="n">
-        <v>11.06565945305285</v>
+        <v>11.06565945305289</v>
       </c>
       <c r="T4" t="n">
-        <v>2.71302031452</v>
+        <v>2.713020314520011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03463430188748941</v>
+        <v>0.03463430188748955</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31370,13 +31370,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>157.3072689909255</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
         <v>191.9290409491429</v>
       </c>
       <c r="N6" t="n">
-        <v>181.1367191104579</v>
+        <v>153.0991627102423</v>
       </c>
       <c r="O6" t="n">
         <v>192.3912514715691</v>
@@ -31610,10 +31610,10 @@
         <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>254.246694046942</v>
+        <v>199.9629954989595</v>
       </c>
       <c r="N9" t="n">
-        <v>189.1706736602745</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
         <v>243.6589731628788</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601102</v>
+        <v>4.709819673601095</v>
       </c>
       <c r="H14" t="n">
-        <v>48.2344407322673</v>
+        <v>48.23444073226722</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665067</v>
+        <v>181.5753229665064</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223019</v>
+        <v>399.7400575223013</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058367</v>
+        <v>599.1067243058358</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418066</v>
+        <v>743.2448681418055</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622102</v>
+        <v>827.0031237622088</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098293</v>
+        <v>840.3848989098281</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304583</v>
+        <v>793.5516295304571</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384311</v>
+        <v>677.2779563384299</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775914</v>
+        <v>508.6075392775906</v>
       </c>
       <c r="R14" t="n">
-        <v>295.8532100718455</v>
+        <v>295.8532100718451</v>
       </c>
       <c r="S14" t="n">
-        <v>107.3250158121852</v>
+        <v>107.3250158121851</v>
       </c>
       <c r="T14" t="n">
-        <v>20.61723562118884</v>
+        <v>20.6172356211888</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3767855738880881</v>
+        <v>0.3767855738880875</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.51997568668195</v>
+        <v>2.519975686681946</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137568</v>
+        <v>24.33765992137564</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146189</v>
+        <v>86.76232079146176</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>238.082439766736</v>
       </c>
       <c r="K15" t="n">
-        <v>406.920810774427</v>
+        <v>406.9208107744264</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332893</v>
+        <v>547.1552472332885</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755098</v>
+        <v>638.5043658755088</v>
       </c>
       <c r="N15" t="n">
-        <v>655.4036765111972</v>
+        <v>655.4036765111962</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062972</v>
+        <v>599.5663205062962</v>
       </c>
       <c r="P15" t="n">
-        <v>481.2048309068367</v>
+        <v>379.1177078491721</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>154.837194006364</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762304</v>
+        <v>46.80744312762296</v>
       </c>
       <c r="T15" t="n">
-        <v>10.15727042131891</v>
+        <v>10.15727042131889</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1657878741238126</v>
+        <v>0.1657878741238123</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.11266296424443</v>
+        <v>2.112662964244427</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482777</v>
+        <v>18.78349435482774</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291434</v>
+        <v>63.53353714291424</v>
       </c>
       <c r="J16" t="n">
-        <v>149.3652715720812</v>
+        <v>149.365271572081</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913074</v>
+        <v>245.453024391307</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023038</v>
+        <v>314.0953647023033</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587883</v>
+        <v>331.1695226587877</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102411</v>
+        <v>323.2950516102406</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824765</v>
+        <v>298.615306982476</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118899</v>
+        <v>255.5169825118895</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.9067142150495</v>
+        <v>176.9067142150492</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320864</v>
+        <v>94.99300928320848</v>
       </c>
       <c r="S16" t="n">
-        <v>36.8179536586961</v>
+        <v>36.81795365869605</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408017</v>
+        <v>9.026832665408003</v>
       </c>
       <c r="U16" t="n">
-        <v>0.11523616168606</v>
+        <v>0.1152361616860598</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32306,31 +32306,31 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>593.4871659531826</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578282</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892349</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838146</v>
@@ -32397,31 +32397,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I20" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L20" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R20" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32503,7 +32503,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H21" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K21" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879669</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160628</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P21" t="n">
-        <v>437.8441493053069</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,10 +32628,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
         <v>342.6725659692048</v>
@@ -32643,22 +32643,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32798,19 +32798,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O24" t="n">
-        <v>366.6975250682018</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -33023,13 +33023,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
         <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
         <v>696.5971294879669</v>
@@ -33038,16 +33038,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P27" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>263.7973608852043</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33269,22 +33269,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P30" t="n">
-        <v>401.0186270906521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33497,13 +33497,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
         <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>287.3850959028138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879669</v>
@@ -33512,10 +33512,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,25 +33734,25 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>693.1474615255904</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P36" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33977,25 +33977,25 @@
         <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>502.1985563837565</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34214,7 +34214,7 @@
         <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34223,16 +34223,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>434.0683069289812</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34375,7 +34375,7 @@
         <v>810.867191086975</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N44" t="n">
         <v>916.8452708117591</v>
@@ -34445,7 +34445,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
         <v>443.943509024727</v>
@@ -34457,19 +34457,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>169.5095981964501</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O45" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21008304703129</v>
+        <v>18.21008304703225</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21008304703129</v>
+        <v>18.21008304703225</v>
       </c>
       <c r="O2" t="n">
-        <v>8.404236927317811</v>
+        <v>8.404236927318749</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.21008304703129</v>
+        <v>18.21008304703225</v>
       </c>
       <c r="M3" t="n">
-        <v>18.21008304703129</v>
+        <v>6.822310709055083</v>
       </c>
       <c r="N3" t="n">
-        <v>6.822310709054698</v>
+        <v>18.21008304703225</v>
       </c>
       <c r="O3" t="n">
-        <v>18.21008304703129</v>
+        <v>18.21008304703225</v>
       </c>
       <c r="P3" t="n">
-        <v>10.6520114067834</v>
+        <v>10.65201140678394</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>18.75288921105129</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="N6" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690899</v>
       </c>
       <c r="O6" t="n">
         <v>49.79500702712463</v>
@@ -35258,10 +35258,10 @@
         <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
+        <v>57.82896157694119</v>
+      </c>
+      <c r="N9" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="N9" t="n">
-        <v>57.82896157694119</v>
       </c>
       <c r="O9" t="n">
         <v>101.0627287184343</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306599</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443195</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956156</v>
+        <v>218.694152995615</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608561</v>
+        <v>379.0168732608552</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718194</v>
+        <v>507.4784531718182</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349375</v>
+        <v>596.6568905349361</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132384</v>
+        <v>610.9718353132371</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087715</v>
+        <v>563.4534181087704</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831615</v>
+        <v>446.0449605831604</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031419</v>
+        <v>286.3018494031411</v>
       </c>
       <c r="R14" t="n">
-        <v>80.2676722577134</v>
+        <v>80.26767225771295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>111.2448131000693</v>
       </c>
       <c r="K15" t="n">
-        <v>269.079371800068</v>
+        <v>269.0793718000674</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534151</v>
+        <v>408.6008674534143</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534915</v>
+        <v>496.3703319534905</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278639</v>
+        <v>524.0619644278629</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618528</v>
+        <v>456.9700760618517</v>
       </c>
       <c r="P15" t="n">
-        <v>347.2304234925064</v>
+        <v>245.1433004348418</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.157690042400075</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540844</v>
+        <v>56.00609145540821</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1835325654245</v>
+        <v>223.1835325654241</v>
       </c>
       <c r="L16" t="n">
-        <v>341.68538996262</v>
+        <v>341.6853899626194</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206288</v>
+        <v>370.7533996206283</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894697</v>
+        <v>367.4272239894692</v>
       </c>
       <c r="O16" t="n">
-        <v>323.2004348965162</v>
+        <v>323.2004348965157</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767834</v>
+        <v>252.795541776783</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335515</v>
+        <v>90.74467096335486</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>454.9327861733084</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133838</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749046</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36045,13 +36045,13 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908712</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P20" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R20" t="n">
         <v>107.1851555440239</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K21" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P21" t="n">
-        <v>303.8697418909766</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36446,19 +36446,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O24" t="n">
-        <v>224.1012806237574</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414945</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641584</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
@@ -36686,16 +36686,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>123.8155867991828</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010888</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P30" t="n">
-        <v>267.0442196763219</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>148.8307161229396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
@@ -37160,10 +37160,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895098</v>
@@ -37245,7 +37245,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641584</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P35" t="n">
         <v>507.665444827693</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>551.013427603572</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
@@ -37625,25 +37625,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>363.6441766038823</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895123</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908711</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37871,16 +37871,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>291.4720624845368</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908712</v>
@@ -37956,7 +37956,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641575</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N44" t="n">
         <v>687.4322072151681</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
         <v>306.102070050368</v>
@@ -38105,19 +38105,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>38.16788611311679</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O45" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817349</v>
@@ -38184,7 +38184,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O46" t="n">
         <v>381.9794231908712</v>
